--- a/PubMed ID Sample.xlsx
+++ b/PubMed ID Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pubmed-Search-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0913891A-888B-4B93-9F00-547AFA608A65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E9753-90FE-400A-85C0-F0C9592A3511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,10 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,70 +367,2518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>31534209</v>
+      <c r="A2">
+        <v>33363763</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>31534209</v>
+      <c r="A3">
+        <v>32521132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>31534209</v>
+      <c r="A4">
+        <v>14524533</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
+        <v>20967488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30726693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22429178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13996450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14211846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>13780451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>26835685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>28723338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16281945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20172918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>26218264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>31211971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>26825294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30459279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>31127833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6733311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21730995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2667138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20605863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24575122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>17498361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>29298788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17088547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28668124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11951047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9677296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31300739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>12731131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30726693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10625597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>26694220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32864580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>19759194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>11848842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23297308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>18950677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1573640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>28499038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>11848848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20758858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8404767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>27154278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12679078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>19318448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>31809538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>17278483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17292634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>32429183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2819866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9808046</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9818261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11570728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>30237267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>17468881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>30397666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>30563175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>8551928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>26830274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10858680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11455712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1529353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>11455715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>11455716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>31415644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>19707994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>9885095</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>26526786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>25015917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>14630329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>29187592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>27030152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7154070</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>7853964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>22122125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>10024458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>26650703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>26303626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>16285204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>9171876</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>22574708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>22314699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>32924542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>29954819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>27881707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>22783787</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>10567528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>17925326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>32880587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>12446901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>24905064</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>24158429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2178014</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>16399364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>32801396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>25121984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>19608759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>10926726</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>32703810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>10656259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>8027393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>29294057</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>14637382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>17186507</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>4420412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>20220066</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9798499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3054889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>32305921</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>30900068</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>27258879</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>11513797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>19565628</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>12614204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>29377071</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3228463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>21550806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>27097728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>29286790</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>27982422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2973663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>28581499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9987554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>11398481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>33239750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>3306679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>31456691</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>24135171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>12668444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>12215645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>33527139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>28423290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>26492287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3854449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>31127966</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>29879141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>26870793</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8490379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>3858805</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>22096190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>7684452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>23355582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8616062</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>18356950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>23761380</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1348914</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>26574952</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>17152117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>30698901</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4436432</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>11525168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>8888784</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>28562105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>24392967</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>15571242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>20299522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>19150361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>24379376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>19120827</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>20441491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>30625173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>27929203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>15238150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>30358897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7771322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>8325246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>23775402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7788291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2673018</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>26652932</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1079921</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>25948842</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>12475936</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>24158758</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8766545</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>30275500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>27329693</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>12948773</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>7638617</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8484118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>25762493</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>25749827</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1637705</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>7642512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>23140544</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>208892</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1303768</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>32577536</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>20162616</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>19328802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2872605</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>30771557</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>11369857</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>16765823</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>19234479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>25810327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>8161514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>3694538</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>30239033</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>29752305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>21854402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>18490379</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>19036093</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>18676061</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>30017729</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>18242132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>33177052</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>7578808</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>6928619</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>3770917</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>9914939</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>18241890</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>33208899</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>24329965</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4020727</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>28422753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>10556208</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>23605132</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>21521287</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>25992606</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>25916234</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>15343395</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>24157355</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>11170380</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>22197026</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>31871045</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>24583620</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>12629971</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>23520247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>28550188</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>122972</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>18755963</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>26588565</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8946850</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>15299423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>28220410</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>31373624</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>19995987</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>14738436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>16396680</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>27032686</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>7652634</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>23963815</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>33039752</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>30479770</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>25242456</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>17439668</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>21530306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>20347315</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>26365875</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>6933511</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>20874511</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>28735981</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3998659</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>23339071</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>2718077</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>12051924</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>15599764</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>16469992</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>27442258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
         <v>32521132</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>32521132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>32521132</v>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>24419909</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>14617022</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>12004122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>22408382</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>24407925</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>8599088</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>24210643</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>29545349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>23331150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>16730741</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>26463260</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1529354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>24909326</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>24594314</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>22130672</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>31504129</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>11186267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1335584</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>9242907</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>2895671</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>24420350</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>8839873</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>18390777</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>28597171</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>16235363</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>10896964</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>14531920</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>28797301</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>8217555</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>18558535</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>7878465</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>10623546</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>8831772</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>8764906</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>30836440</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>9408019</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>18028483</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>26313503</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>9376610</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>19272855</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>28699687</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>29134863</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>10704199</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>23908454</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>19701184</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>10126677</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>15778742</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>11960492</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>15473081</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>4046735</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>7489056</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>21490763</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>7570237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>21490760</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>25258081</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>28145879</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>17517643</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>20064150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>20396338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>23845999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>15465059</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>10449367</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>24944729</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>29059020</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>20362506</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>31137851</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>29346569</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>24616776</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>28692802</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1605204</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>17269774</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>24256948</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>10833406</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>2264944</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>29556741</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>26592148</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>11813219</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>18195964</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>8115923</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>8168855</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>31744266</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>32878859</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>17808166</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>24038743</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>30352853</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>10089343</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>12089152</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>22095702</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>2153208</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>31909782</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>17065216</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>18283450</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>18634876</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>9054653</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>18195923</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>4364652</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>11029176</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>3564034</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>7740354</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>7740353</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>9668532</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>17181658</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>17666101</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>8286368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>31723731</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>26333996</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>29380312</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>28710816</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>27512471</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>27512472</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>25183705</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>33033395</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>18231455</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>10231332</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>23707360</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>23364088</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>3057498</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>20719839</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>25001235</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>14504137</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>22767635</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>1793006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>14994784</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>32225030</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>29910828</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>17512804</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>2832603</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>32142156</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>21186184</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>7715619</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>28827388</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>30301844</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>32513045</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>8672447</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>26973151</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>9756473</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>11127187</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>26341524</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>16239508</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>30016424</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>2964561</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>31420421</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>33266331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>671343</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>15982356</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>10550213</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>22409774</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>30916477</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>1303770</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>1959588</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>21685408</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>16595318</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>6798618</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>22078568</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>31991476</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>25664737</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>27098418</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>20227897</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>9827906</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>26644172</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>11373052</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>6932021</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>12384777</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>16879829</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>26402148</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>25360329</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>15901546</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>25956886</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>33054122</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>22162480</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>445089</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>24317709</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>20577356</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>27587381</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>23684269</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>24347555</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>8235512</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>24913013</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>10745964</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>33320413</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>9140404</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>11172863</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>32538623</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>30204739</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>16226729</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>16778136</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>1702556</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>29648599</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>29508689</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>25660670</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>8665839</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>3303032</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>15708635</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>10647891</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>5038410</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>24981689</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>21168001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>21186353</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>7692436</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>19717363</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>18298955</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>28341788</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>11830385</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>17546080</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>24038013</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>9404163</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>1317859</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>30999659</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>27571182</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>8701420</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>9063865</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>31863094</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>6580631</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>11243821</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>11960573</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>4404566</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>8268799</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>17891627</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>2768322</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>12501184</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>18615556</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>29775310</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>15566366</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>9668593</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>7979238</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>11167748</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>20758070</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>29568051</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>32135023</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>6943549</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>3730515</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>6253649</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>31845460</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>6428646</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>1464373</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>16023057</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>9461074</v>
       </c>
     </row>
   </sheetData>
